--- a/static/Жилые_Комплексы/ЖК_Рассвет/jk_data.xlsx
+++ b/static/Жилые_Комплексы/ЖК_Рассвет/jk_data.xlsx
@@ -1782,7 +1782,7 @@
       </c>
       <c r="C16" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D16" s="14" t="n">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="C19" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D19" s="14" t="n">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C23" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D23" s="14" t="n">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="C26" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D26" s="14" t="n">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="C28" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D28" s="14" t="n">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="C30" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D30" s="14" t="n">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="C31" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D31" s="14" t="n">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="C33" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D33" s="14" t="n">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="C35" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D35" s="14" t="n">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="C37" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D37" s="14" t="n">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C47" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D47" s="14" t="n">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="C49" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D49" s="14" t="n">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="C51" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D51" s="14" t="n">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="C54" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D54" s="14" t="n">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="C58" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D58" s="14" t="n">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="C61" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D61" s="14" t="n">
@@ -3497,7 +3497,7 @@
       </c>
       <c r="C65" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D65" s="14" t="n">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="C66" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D66" s="14" t="n">
@@ -3602,7 +3602,7 @@
       </c>
       <c r="C68" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D68" s="14" t="n">
@@ -3672,7 +3672,7 @@
       </c>
       <c r="C70" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D70" s="14" t="n">
@@ -3742,7 +3742,7 @@
       </c>
       <c r="C72" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D72" s="14" t="n">
@@ -3917,7 +3917,7 @@
       </c>
       <c r="C77" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D77" s="14" t="n">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="C79" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D79" s="14" t="n">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="C82" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D82" s="14" t="n">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="C91" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D91" s="14" t="n">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="C92" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D92" s="14" t="n">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="C98" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D98" s="14" t="n">
@@ -4675,7 +4675,7 @@
       </c>
       <c r="C99" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D99" s="14" t="n">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="C100" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D100" s="14" t="n">
@@ -4885,7 +4885,7 @@
       </c>
       <c r="C105" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D105" s="14" t="n">
@@ -4920,7 +4920,7 @@
       </c>
       <c r="C106" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D106" s="14" t="n">
@@ -5165,7 +5165,7 @@
       </c>
       <c r="C113" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D113" s="14" t="n">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="C114" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D114" s="14" t="n">
@@ -5340,7 +5340,7 @@
       </c>
       <c r="C118" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D118" s="14" t="n">
@@ -5410,7 +5410,7 @@
       </c>
       <c r="C120" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D120" s="14" t="n">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="C121" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D121" s="14" t="n">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="C124" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D124" s="14" t="n">
@@ -5620,7 +5620,7 @@
       </c>
       <c r="C126" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D126" s="14" t="n">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="C127" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D127" s="14" t="n">
@@ -5690,7 +5690,7 @@
       </c>
       <c r="C128" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D128" s="14" t="n">
@@ -5795,7 +5795,7 @@
       </c>
       <c r="C131" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D131" s="14" t="n">
@@ -5830,7 +5830,7 @@
       </c>
       <c r="C132" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D132" s="14" t="n">
@@ -5865,7 +5865,7 @@
       </c>
       <c r="C133" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D133" s="14" t="n">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="C134" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D134" s="14" t="n">
@@ -5935,7 +5935,7 @@
       </c>
       <c r="C135" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D135" s="14" t="n">
@@ -6075,7 +6075,7 @@
       </c>
       <c r="C139" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D139" s="14" t="n">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="C140" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D140" s="14" t="n">
@@ -6145,7 +6145,7 @@
       </c>
       <c r="C141" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D141" s="14" t="n">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="C142" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D142" s="14" t="n">
@@ -6285,7 +6285,7 @@
       </c>
       <c r="C145" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D145" s="14" t="n">
@@ -6320,7 +6320,7 @@
       </c>
       <c r="C146" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D146" s="14" t="n">
@@ -6355,7 +6355,7 @@
       </c>
       <c r="C147" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D147" s="14" t="n">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="C148" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D148" s="14" t="n">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="C149" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D149" s="14" t="n">
@@ -6530,7 +6530,7 @@
       </c>
       <c r="C152" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D152" s="14" t="n">
@@ -6565,7 +6565,7 @@
       </c>
       <c r="C153" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D153" s="14" t="n">
@@ -6600,7 +6600,7 @@
       </c>
       <c r="C154" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D154" s="14" t="n">
@@ -6635,7 +6635,7 @@
       </c>
       <c r="C155" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D155" s="14" t="n">
@@ -6670,7 +6670,7 @@
       </c>
       <c r="C156" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D156" s="14" t="n">
@@ -6775,7 +6775,7 @@
       </c>
       <c r="C159" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D159" s="14" t="n">
@@ -6810,7 +6810,7 @@
       </c>
       <c r="C160" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D160" s="14" t="n">
@@ -6845,7 +6845,7 @@
       </c>
       <c r="C161" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D161" s="14" t="n">
@@ -6880,7 +6880,7 @@
       </c>
       <c r="C162" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D162" s="14" t="n">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="C163" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D163" s="14" t="n">
@@ -7053,7 +7053,7 @@
       </c>
       <c r="C167" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D167" s="14" t="n"/>
@@ -7086,7 +7086,7 @@
       </c>
       <c r="C168" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D168" s="14" t="n"/>
@@ -7152,7 +7152,7 @@
       </c>
       <c r="C170" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D170" s="14" t="n">
@@ -7187,7 +7187,7 @@
       </c>
       <c r="C171" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D171" s="14" t="n">
@@ -7222,7 +7222,7 @@
       </c>
       <c r="C172" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D172" s="14" t="n">
@@ -7292,7 +7292,7 @@
       </c>
       <c r="C174" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D174" s="14" t="n">
@@ -7362,7 +7362,7 @@
       </c>
       <c r="C176" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D176" s="14" t="n">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="C178" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D178" s="14" t="n">
@@ -7502,7 +7502,7 @@
       </c>
       <c r="C180" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D180" s="14" t="n">
@@ -7537,7 +7537,7 @@
       </c>
       <c r="C181" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D181" s="14" t="n">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="C182" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D182" s="14" t="n">
@@ -7642,7 +7642,7 @@
       </c>
       <c r="C184" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D184" s="14" t="n">
@@ -7677,7 +7677,7 @@
       </c>
       <c r="C185" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D185" s="14" t="n">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="C186" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D186" s="14" t="n">
@@ -7747,7 +7747,7 @@
       </c>
       <c r="C187" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D187" s="14" t="n">
@@ -7782,7 +7782,7 @@
       </c>
       <c r="C188" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D188" s="14" t="n">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="C190" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D190" s="14" t="n">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="C191" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D191" s="14" t="n">
@@ -7922,7 +7922,7 @@
       </c>
       <c r="C192" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D192" s="14" t="n">
@@ -7957,7 +7957,7 @@
       </c>
       <c r="C193" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D193" s="14" t="n">
@@ -7992,7 +7992,7 @@
       </c>
       <c r="C194" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D194" s="14" t="n">
@@ -8062,7 +8062,7 @@
       </c>
       <c r="C196" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D196" s="14" t="n">
@@ -8097,7 +8097,7 @@
       </c>
       <c r="C197" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D197" s="14" t="n">
@@ -8132,7 +8132,7 @@
       </c>
       <c r="C198" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D198" s="14" t="n">
@@ -8167,7 +8167,7 @@
       </c>
       <c r="C199" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D199" s="14" t="n">
@@ -8202,7 +8202,7 @@
       </c>
       <c r="C200" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D200" s="14" t="n">
@@ -8272,7 +8272,7 @@
       </c>
       <c r="C202" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D202" s="14" t="n">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="C203" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D203" s="14" t="n">
@@ -8342,7 +8342,7 @@
       </c>
       <c r="C204" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D204" s="14" t="n">
@@ -8412,7 +8412,7 @@
       </c>
       <c r="C206" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D206" s="14" t="n">
@@ -8482,7 +8482,7 @@
       </c>
       <c r="C208" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D208" s="14" t="n">
@@ -8552,7 +8552,7 @@
       </c>
       <c r="C210" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D210" s="14" t="n">
@@ -8587,7 +8587,7 @@
       </c>
       <c r="C211" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D211" s="14" t="n">
@@ -8622,7 +8622,7 @@
       </c>
       <c r="C212" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D212" s="14" t="n">
@@ -8692,7 +8692,7 @@
       </c>
       <c r="C214" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D214" s="14" t="n">
@@ -8727,7 +8727,7 @@
       </c>
       <c r="C215" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D215" s="14" t="n">
@@ -8762,7 +8762,7 @@
       </c>
       <c r="C216" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D216" s="14" t="n">
@@ -8797,7 +8797,7 @@
       </c>
       <c r="C217" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D217" s="14" t="n">
@@ -8832,7 +8832,7 @@
       </c>
       <c r="C218" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D218" s="14" t="n">
@@ -8902,7 +8902,7 @@
       </c>
       <c r="C220" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D220" s="14" t="n">
@@ -8937,7 +8937,7 @@
       </c>
       <c r="C221" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D221" s="14" t="n">
@@ -8972,7 +8972,7 @@
       </c>
       <c r="C222" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D222" s="14" t="n">
@@ -9007,7 +9007,7 @@
       </c>
       <c r="C223" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D223" s="14" t="n">
@@ -9042,7 +9042,7 @@
       </c>
       <c r="C224" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D224" s="14" t="n">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="C226" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D226" s="14" t="n">
@@ -9182,7 +9182,7 @@
       </c>
       <c r="C228" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D228" s="14" t="n">
@@ -9217,7 +9217,7 @@
       </c>
       <c r="C229" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D229" s="14" t="n">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="C230" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D230" s="14" t="n">
@@ -9287,7 +9287,7 @@
       </c>
       <c r="C231" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D231" s="14" t="n">
@@ -9322,7 +9322,7 @@
       </c>
       <c r="C232" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D232" s="14" t="n">
@@ -9357,7 +9357,7 @@
       </c>
       <c r="C233" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D233" s="14" t="n">
@@ -9427,7 +9427,7 @@
       </c>
       <c r="C235" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D235" s="14" t="n">
@@ -9528,7 +9528,7 @@
       </c>
       <c r="C238" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D238" s="14" t="n"/>
@@ -9561,7 +9561,7 @@
       </c>
       <c r="C239" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D239" s="14" t="n"/>
@@ -9627,7 +9627,7 @@
       </c>
       <c r="C241" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D241" s="14" t="n">
@@ -9662,7 +9662,7 @@
       </c>
       <c r="C242" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D242" s="14" t="n">
@@ -9697,7 +9697,7 @@
       </c>
       <c r="C243" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D243" s="14" t="n">
@@ -9802,7 +9802,7 @@
       </c>
       <c r="C246" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D246" s="14" t="n">
@@ -9837,7 +9837,7 @@
       </c>
       <c r="C247" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D247" s="14" t="n">
@@ -9872,7 +9872,7 @@
       </c>
       <c r="C248" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D248" s="14" t="n">
@@ -9942,7 +9942,7 @@
       </c>
       <c r="C250" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D250" s="14" t="n">
@@ -9977,7 +9977,7 @@
       </c>
       <c r="C251" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D251" s="14" t="n">
@@ -10012,7 +10012,7 @@
       </c>
       <c r="C252" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D252" s="14" t="n">
@@ -10047,7 +10047,7 @@
       </c>
       <c r="C253" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D253" s="14" t="n">
@@ -10082,7 +10082,7 @@
       </c>
       <c r="C254" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D254" s="14" t="n">
@@ -10152,7 +10152,7 @@
       </c>
       <c r="C256" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D256" s="14" t="n">
@@ -10222,7 +10222,7 @@
       </c>
       <c r="C258" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D258" s="14" t="n">
@@ -10327,7 +10327,7 @@
       </c>
       <c r="C261" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D261" s="14" t="n">
@@ -10362,7 +10362,7 @@
       </c>
       <c r="C262" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D262" s="14" t="n">
@@ -10397,7 +10397,7 @@
       </c>
       <c r="C263" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D263" s="14" t="n">
@@ -10432,7 +10432,7 @@
       </c>
       <c r="C264" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D264" s="14" t="n">
@@ -10467,7 +10467,7 @@
       </c>
       <c r="C265" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D265" s="14" t="n">
@@ -10502,7 +10502,7 @@
       </c>
       <c r="C266" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D266" s="14" t="n">
@@ -10537,7 +10537,7 @@
       </c>
       <c r="C267" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D267" s="14" t="n">
@@ -10572,7 +10572,7 @@
       </c>
       <c r="C268" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D268" s="14" t="n">
@@ -10607,7 +10607,7 @@
       </c>
       <c r="C269" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D269" s="14" t="n">
@@ -10642,7 +10642,7 @@
       </c>
       <c r="C270" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D270" s="14" t="n">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="C271" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D271" s="14" t="n">
@@ -10712,7 +10712,7 @@
       </c>
       <c r="C272" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D272" s="14" t="n">
@@ -10747,7 +10747,7 @@
       </c>
       <c r="C273" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D273" s="14" t="n">
@@ -10782,7 +10782,7 @@
       </c>
       <c r="C274" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D274" s="14" t="n">
@@ -10817,7 +10817,7 @@
       </c>
       <c r="C275" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D275" s="14" t="n">
@@ -10852,7 +10852,7 @@
       </c>
       <c r="C276" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D276" s="14" t="n">
@@ -10887,7 +10887,7 @@
       </c>
       <c r="C277" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D277" s="14" t="n">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="C278" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D278" s="14" t="n">
@@ -10992,7 +10992,7 @@
       </c>
       <c r="C280" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D280" s="14" t="n">
@@ -11062,7 +11062,7 @@
       </c>
       <c r="C282" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D282" s="14" t="n">
@@ -11097,7 +11097,7 @@
       </c>
       <c r="C283" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D283" s="14" t="n">
@@ -11132,7 +11132,7 @@
       </c>
       <c r="C284" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D284" s="14" t="n">
@@ -11167,7 +11167,7 @@
       </c>
       <c r="C285" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D285" s="14" t="n">
@@ -11202,7 +11202,7 @@
       </c>
       <c r="C286" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D286" s="14" t="n">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="C288" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D288" s="14" t="n">
@@ -11307,7 +11307,7 @@
       </c>
       <c r="C289" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D289" s="14" t="n">
@@ -11342,7 +11342,7 @@
       </c>
       <c r="C290" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D290" s="14" t="n">
@@ -11377,7 +11377,7 @@
       </c>
       <c r="C291" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D291" s="14" t="n">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="C292" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D292" s="14" t="n">
@@ -11447,7 +11447,7 @@
       </c>
       <c r="C293" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D293" s="14" t="n">
@@ -11482,7 +11482,7 @@
       </c>
       <c r="C294" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D294" s="14" t="n">
@@ -11517,7 +11517,7 @@
       </c>
       <c r="C295" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D295" s="14" t="n">
@@ -11552,7 +11552,7 @@
       </c>
       <c r="C296" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D296" s="14" t="n">
@@ -11587,7 +11587,7 @@
       </c>
       <c r="C297" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D297" s="14" t="n">
@@ -11622,7 +11622,7 @@
       </c>
       <c r="C298" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D298" s="14" t="n">
@@ -11692,7 +11692,7 @@
       </c>
       <c r="C300" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D300" s="14" t="n">
@@ -11727,7 +11727,7 @@
       </c>
       <c r="C301" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D301" s="14" t="n">
@@ -11797,7 +11797,7 @@
       </c>
       <c r="C303" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D303" s="14" t="n">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="C304" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D304" s="14" t="n">
@@ -11867,7 +11867,7 @@
       </c>
       <c r="C305" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D305" s="14" t="n">
@@ -11902,7 +11902,7 @@
       </c>
       <c r="C306" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D306" s="14" t="n">
@@ -11970,7 +11970,7 @@
       </c>
       <c r="C308" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D308" s="14" t="n"/>
@@ -12003,7 +12003,7 @@
       </c>
       <c r="C309" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D309" s="14" t="n"/>
@@ -12205,7 +12205,7 @@
       </c>
       <c r="C315" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D315" s="14" t="n">
@@ -12240,7 +12240,7 @@
       </c>
       <c r="C316" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D316" s="14" t="n">
@@ -12415,7 +12415,7 @@
       </c>
       <c r="C321" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D321" s="14" t="n">
@@ -12450,7 +12450,7 @@
       </c>
       <c r="C322" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D322" s="14" t="n">
@@ -12485,7 +12485,7 @@
       </c>
       <c r="C323" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D323" s="14" t="n">
@@ -12590,7 +12590,7 @@
       </c>
       <c r="C326" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D326" s="14" t="n">
@@ -12625,7 +12625,7 @@
       </c>
       <c r="C327" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D327" s="14" t="n">
@@ -12660,7 +12660,7 @@
       </c>
       <c r="C328" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D328" s="14" t="n">
@@ -12695,7 +12695,7 @@
       </c>
       <c r="C329" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D329" s="14" t="n">
@@ -12765,7 +12765,7 @@
       </c>
       <c r="C331" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D331" s="14" t="n">
@@ -12800,7 +12800,7 @@
       </c>
       <c r="C332" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D332" s="14" t="n">
@@ -12835,7 +12835,7 @@
       </c>
       <c r="C333" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D333" s="14" t="n">
@@ -12870,7 +12870,7 @@
       </c>
       <c r="C334" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D334" s="14" t="n">
@@ -12905,7 +12905,7 @@
       </c>
       <c r="C335" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D335" s="14" t="n">
@@ -12940,7 +12940,7 @@
       </c>
       <c r="C336" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D336" s="14" t="n">
@@ -13010,7 +13010,7 @@
       </c>
       <c r="C338" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D338" s="14" t="n">
@@ -13045,7 +13045,7 @@
       </c>
       <c r="C339" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D339" s="14" t="n">
@@ -13080,7 +13080,7 @@
       </c>
       <c r="C340" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D340" s="14" t="n">
@@ -13115,7 +13115,7 @@
       </c>
       <c r="C341" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D341" s="14" t="n">
@@ -13220,7 +13220,7 @@
       </c>
       <c r="C344" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D344" s="14" t="n">
@@ -13255,7 +13255,7 @@
       </c>
       <c r="C345" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D345" s="14" t="n">
@@ -13290,7 +13290,7 @@
       </c>
       <c r="C346" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D346" s="14" t="n">
@@ -13325,7 +13325,7 @@
       </c>
       <c r="C347" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D347" s="14" t="n">
@@ -13465,7 +13465,7 @@
       </c>
       <c r="C351" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D351" s="14" t="n">
@@ -13500,7 +13500,7 @@
       </c>
       <c r="C352" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D352" s="14" t="n">
@@ -13535,7 +13535,7 @@
       </c>
       <c r="C353" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D353" s="14" t="n">
@@ -13570,7 +13570,7 @@
       </c>
       <c r="C354" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D354" s="14" t="n">
@@ -13640,7 +13640,7 @@
       </c>
       <c r="C356" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D356" s="14" t="n">
@@ -13675,7 +13675,7 @@
       </c>
       <c r="C357" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D357" s="14" t="n">
@@ -13710,7 +13710,7 @@
       </c>
       <c r="C358" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D358" s="14" t="n">
@@ -13745,7 +13745,7 @@
       </c>
       <c r="C359" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D359" s="14" t="n">
@@ -13780,7 +13780,7 @@
       </c>
       <c r="C360" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D360" s="14" t="n">
@@ -13850,7 +13850,7 @@
       </c>
       <c r="C362" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D362" s="14" t="n">
@@ -13885,7 +13885,7 @@
       </c>
       <c r="C363" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D363" s="14" t="n">
@@ -13955,7 +13955,7 @@
       </c>
       <c r="C365" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D365" s="14" t="n">
@@ -14095,7 +14095,7 @@
       </c>
       <c r="C369" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D369" s="14" t="n">
@@ -14130,7 +14130,7 @@
       </c>
       <c r="C370" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D370" s="14" t="n">
@@ -14165,7 +14165,7 @@
       </c>
       <c r="C371" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D371" s="14" t="n">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="C372" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D372" s="14" t="n">
@@ -14270,7 +14270,7 @@
       </c>
       <c r="C374" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D374" s="14" t="n">
@@ -14305,7 +14305,7 @@
       </c>
       <c r="C375" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D375" s="14" t="n">
@@ -14340,7 +14340,7 @@
       </c>
       <c r="C376" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D376" s="14" t="n">
@@ -14375,7 +14375,7 @@
       </c>
       <c r="C377" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D377" s="14" t="n">
@@ -14715,7 +14715,7 @@
       </c>
       <c r="C387" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D387" s="14" t="n">
@@ -14960,7 +14960,7 @@
       </c>
       <c r="C394" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D394" s="14" t="n">
@@ -15205,7 +15205,7 @@
       </c>
       <c r="C401" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D401" s="14" t="n">
@@ -15380,7 +15380,7 @@
       </c>
       <c r="C406" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D406" s="14" t="n">
@@ -15415,7 +15415,7 @@
       </c>
       <c r="C407" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D407" s="14" t="n">
@@ -15450,7 +15450,7 @@
       </c>
       <c r="C408" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D408" s="14" t="n">
@@ -15590,7 +15590,7 @@
       </c>
       <c r="C412" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D412" s="14" t="n">
@@ -15660,7 +15660,7 @@
       </c>
       <c r="C414" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D414" s="14" t="n">
@@ -15695,7 +15695,7 @@
       </c>
       <c r="C415" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D415" s="14" t="n">
@@ -15730,7 +15730,7 @@
       </c>
       <c r="C416" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D416" s="14" t="n">
@@ -15765,7 +15765,7 @@
       </c>
       <c r="C417" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D417" s="14" t="n">
@@ -15835,7 +15835,7 @@
       </c>
       <c r="C419" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D419" s="14" t="n">
@@ -15940,7 +15940,7 @@
       </c>
       <c r="C422" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D422" s="14" t="n">
@@ -16185,7 +16185,7 @@
       </c>
       <c r="C429" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D429" s="14" t="n">
@@ -16325,7 +16325,7 @@
       </c>
       <c r="C433" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D433" s="14" t="n">
@@ -16395,7 +16395,7 @@
       </c>
       <c r="C435" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D435" s="14" t="n">
@@ -16430,7 +16430,7 @@
       </c>
       <c r="C436" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D436" s="14" t="n">
@@ -16500,7 +16500,7 @@
       </c>
       <c r="C438" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D438" s="14" t="n">
@@ -16535,7 +16535,7 @@
       </c>
       <c r="C439" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D439" s="14" t="n">
@@ -16570,7 +16570,7 @@
       </c>
       <c r="C440" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D440" s="14" t="n">
@@ -16640,7 +16640,7 @@
       </c>
       <c r="C442" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D442" s="14" t="n">
@@ -16675,7 +16675,7 @@
       </c>
       <c r="C443" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D443" s="14" t="n">
@@ -16885,7 +16885,7 @@
       </c>
       <c r="C449" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D449" s="14" t="n">
@@ -16920,7 +16920,7 @@
       </c>
       <c r="C450" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D450" s="14" t="n">
@@ -16955,7 +16955,7 @@
       </c>
       <c r="C451" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D451" s="14" t="n">
@@ -16990,7 +16990,7 @@
       </c>
       <c r="C452" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D452" s="14" t="n">
@@ -17025,7 +17025,7 @@
       </c>
       <c r="C453" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D453" s="14" t="n">
@@ -17165,7 +17165,7 @@
       </c>
       <c r="C457" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D457" s="14" t="n">
@@ -17235,7 +17235,7 @@
       </c>
       <c r="C459" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D459" s="14" t="n">

--- a/static/Жилые_Комплексы/ЖК_Рассвет/jk_data.xlsx
+++ b/static/Жилые_Комплексы/ЖК_Рассвет/jk_data.xlsx
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D6" s="14" t="n">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D7" s="14" t="n">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D13" s="14" t="n">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="C14" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D14" s="14" t="n">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="C20" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D20" s="14" t="n">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="C21" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D21" s="14" t="n">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="C27" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D27" s="14" t="n">
@@ -2412,7 +2412,7 @@
       </c>
       <c r="C34" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D34" s="14" t="n">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="C41" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D41" s="14" t="n">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="C42" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D42" s="14" t="n">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="C44" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D44" s="14" t="n">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="C48" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D48" s="14" t="n">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="C55" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D55" s="14" t="n">
@@ -3182,7 +3182,7 @@
       </c>
       <c r="C56" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D56" s="14" t="n">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="C62" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D62" s="14" t="n">
@@ -3427,7 +3427,7 @@
       </c>
       <c r="C63" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D63" s="14" t="n">
@@ -3637,7 +3637,7 @@
       </c>
       <c r="C69" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D69" s="14" t="n">
@@ -3777,7 +3777,7 @@
       </c>
       <c r="C73" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D73" s="14" t="n">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="C75" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D75" s="14" t="n">
@@ -3882,7 +3882,7 @@
       </c>
       <c r="C76" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D76" s="14" t="n">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="C80" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D80" s="14" t="n">
@@ -5130,7 +5130,7 @@
       </c>
       <c r="C112" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D112" s="14" t="n">
@@ -5375,7 +5375,7 @@
       </c>
       <c r="C119" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D119" s="14" t="n">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="C125" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D125" s="14" t="n">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="C138" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D138" s="14" t="n">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="C175" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D175" s="14" t="n">
@@ -7397,7 +7397,7 @@
       </c>
       <c r="C177" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D177" s="14" t="n">
@@ -7607,7 +7607,7 @@
       </c>
       <c r="C183" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D183" s="14" t="n">
@@ -7817,7 +7817,7 @@
       </c>
       <c r="C189" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D189" s="14" t="n">
@@ -8027,7 +8027,7 @@
       </c>
       <c r="C195" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D195" s="14" t="n">
@@ -8237,7 +8237,7 @@
       </c>
       <c r="C201" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D201" s="14" t="n">
@@ -8447,7 +8447,7 @@
       </c>
       <c r="C207" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D207" s="14" t="n">
@@ -8657,7 +8657,7 @@
       </c>
       <c r="C213" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D213" s="14" t="n">
@@ -8867,7 +8867,7 @@
       </c>
       <c r="C219" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D219" s="14" t="n">
@@ -9077,7 +9077,7 @@
       </c>
       <c r="C225" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D225" s="14" t="n">
@@ -9392,7 +9392,7 @@
       </c>
       <c r="C234" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D234" s="14" t="n">
@@ -9767,7 +9767,7 @@
       </c>
       <c r="C245" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D245" s="14" t="n">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="C257" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D257" s="14" t="n">
@@ -10257,7 +10257,7 @@
       </c>
       <c r="C259" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D259" s="14" t="n">
@@ -10292,7 +10292,7 @@
       </c>
       <c r="C260" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D260" s="14" t="n">
@@ -11027,7 +11027,7 @@
       </c>
       <c r="C281" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D281" s="14" t="n">
@@ -11237,7 +11237,7 @@
       </c>
       <c r="C287" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D287" s="14" t="n">
@@ -11657,7 +11657,7 @@
       </c>
       <c r="C299" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D299" s="14" t="n">
@@ -11762,7 +11762,7 @@
       </c>
       <c r="C302" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D302" s="14" t="n">
@@ -13430,7 +13430,7 @@
       </c>
       <c r="C350" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D350" s="14" t="n">
@@ -13920,7 +13920,7 @@
       </c>
       <c r="C364" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D364" s="14" t="n">
@@ -14060,7 +14060,7 @@
       </c>
       <c r="C368" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D368" s="14" t="n">
@@ -14785,7 +14785,7 @@
       </c>
       <c r="C389" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D389" s="14" t="n">
@@ -14820,7 +14820,7 @@
       </c>
       <c r="C390" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D390" s="14" t="n">
@@ -15030,7 +15030,7 @@
       </c>
       <c r="C396" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D396" s="14" t="n">
@@ -15065,7 +15065,7 @@
       </c>
       <c r="C397" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D397" s="14" t="n">
@@ -15240,7 +15240,7 @@
       </c>
       <c r="C402" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D402" s="14" t="n">
@@ -15275,7 +15275,7 @@
       </c>
       <c r="C403" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D403" s="14" t="n">
@@ -15310,7 +15310,7 @@
       </c>
       <c r="C404" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D404" s="14" t="n">
@@ -15520,7 +15520,7 @@
       </c>
       <c r="C410" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D410" s="14" t="n">
@@ -15555,7 +15555,7 @@
       </c>
       <c r="C411" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D411" s="14" t="n">
@@ -15800,7 +15800,7 @@
       </c>
       <c r="C418" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D418" s="14" t="n">
@@ -16010,7 +16010,7 @@
       </c>
       <c r="C424" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D424" s="14" t="n">
@@ -16045,7 +16045,7 @@
       </c>
       <c r="C425" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D425" s="14" t="n">
@@ -16080,7 +16080,7 @@
       </c>
       <c r="C426" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D426" s="14" t="n">
@@ -16255,7 +16255,7 @@
       </c>
       <c r="C431" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D431" s="14" t="n">
@@ -16290,7 +16290,7 @@
       </c>
       <c r="C432" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D432" s="14" t="n">
@@ -16745,7 +16745,7 @@
       </c>
       <c r="C445" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D445" s="14" t="n">
@@ -16780,7 +16780,7 @@
       </c>
       <c r="C446" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D446" s="14" t="n">
@@ -16815,7 +16815,7 @@
       </c>
       <c r="C447" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D447" s="14" t="n">
@@ -17060,7 +17060,7 @@
       </c>
       <c r="C454" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D454" s="14" t="n">
@@ -17200,7 +17200,7 @@
       </c>
       <c r="C458" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D458" s="14" t="n">
@@ -17270,7 +17270,7 @@
       </c>
       <c r="C460" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D460" s="14" t="n">

--- a/static/Жилые_Комплексы/ЖК_Рассвет/jk_data.xlsx
+++ b/static/Жилые_Комплексы/ЖК_Рассвет/jk_data.xlsx
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C40" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D40" s="14" t="n">
@@ -7222,7 +7222,7 @@
       </c>
       <c r="C172" s="11" t="inlineStr">
         <is>
-          <t>продана</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D172" s="14" t="n">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="C175" s="11" t="inlineStr">
         <is>
-          <t>продана</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D175" s="14" t="n">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="C190" s="11" t="inlineStr">
         <is>
-          <t>продана</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D190" s="14" t="n">
@@ -14095,7 +14095,7 @@
       </c>
       <c r="C369" s="11" t="inlineStr">
         <is>
-          <t>продана</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D369" s="14" t="n">
@@ -14375,7 +14375,7 @@
       </c>
       <c r="C377" s="11" t="inlineStr">
         <is>
-          <t>продана</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D377" s="14" t="n">

--- a/static/Жилые_Комплексы/ЖК_Рассвет/jk_data.xlsx
+++ b/static/Жилые_Комплексы/ЖК_Рассвет/jk_data.xlsx
@@ -1642,7 +1642,7 @@
       </c>
       <c r="C12" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D12" s="14" t="n">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C40" s="11" t="inlineStr">
         <is>
-          <t>продана</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D40" s="14" t="n">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="C49" s="11" t="inlineStr">
         <is>
-          <t>продана</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D49" s="14" t="n">
@@ -13780,7 +13780,7 @@
       </c>
       <c r="C360" s="11" t="inlineStr">
         <is>
-          <t>продана</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D360" s="14" t="n">

--- a/static/Жилые_Комплексы/ЖК_Рассвет/jk_data.xlsx
+++ b/static/Жилые_Комплексы/ЖК_Рассвет/jk_data.xlsx
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D6" s="14" t="n">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D7" s="14" t="n">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D13" s="14" t="n">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="C14" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D14" s="14" t="n">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="C20" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D20" s="14" t="n">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="C21" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D21" s="14" t="n">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="C27" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D27" s="14" t="n">
@@ -2412,7 +2412,7 @@
       </c>
       <c r="C34" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D34" s="14" t="n">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="C41" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D41" s="14" t="n">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="C42" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D42" s="14" t="n">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="C48" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D48" s="14" t="n">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="C55" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D55" s="14" t="n">
@@ -3182,7 +3182,7 @@
       </c>
       <c r="C56" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D56" s="14" t="n">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="C62" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D62" s="14" t="n">
@@ -3427,7 +3427,7 @@
       </c>
       <c r="C63" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D63" s="14" t="n">
@@ -3637,7 +3637,7 @@
       </c>
       <c r="C69" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D69" s="14" t="n">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="C80" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D80" s="14" t="n">
@@ -5130,7 +5130,7 @@
       </c>
       <c r="C112" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D112" s="14" t="n">
@@ -5375,7 +5375,7 @@
       </c>
       <c r="C119" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D119" s="14" t="n">
@@ -7397,7 +7397,7 @@
       </c>
       <c r="C177" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D177" s="14" t="n">
@@ -7607,7 +7607,7 @@
       </c>
       <c r="C183" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D183" s="14" t="n">
@@ -7817,7 +7817,7 @@
       </c>
       <c r="C189" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D189" s="14" t="n">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="C190" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D190" s="14" t="n">
@@ -8027,7 +8027,7 @@
       </c>
       <c r="C195" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D195" s="14" t="n">
@@ -8237,7 +8237,7 @@
       </c>
       <c r="C201" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D201" s="14" t="n">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="C205" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D205" s="14" t="n">
@@ -8447,7 +8447,7 @@
       </c>
       <c r="C207" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D207" s="14" t="n">
@@ -8552,7 +8552,7 @@
       </c>
       <c r="C210" s="11" t="inlineStr">
         <is>
-          <t>продана</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D210" s="14" t="n">
@@ -8657,7 +8657,7 @@
       </c>
       <c r="C213" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D213" s="14" t="n">
@@ -8867,7 +8867,7 @@
       </c>
       <c r="C219" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D219" s="14" t="n">
@@ -9077,7 +9077,7 @@
       </c>
       <c r="C225" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D225" s="14" t="n">
@@ -9392,7 +9392,7 @@
       </c>
       <c r="C234" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D234" s="14" t="n">
@@ -9767,7 +9767,7 @@
       </c>
       <c r="C245" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D245" s="14" t="n">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="C257" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D257" s="14" t="n">
@@ -10257,7 +10257,7 @@
       </c>
       <c r="C259" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D259" s="14" t="n">
@@ -11027,7 +11027,7 @@
       </c>
       <c r="C281" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D281" s="14" t="n">
@@ -11237,7 +11237,7 @@
       </c>
       <c r="C287" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D287" s="14" t="n">
@@ -11657,7 +11657,7 @@
       </c>
       <c r="C299" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D299" s="14" t="n">
@@ -11762,7 +11762,7 @@
       </c>
       <c r="C302" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D302" s="14" t="n">
@@ -14095,7 +14095,7 @@
       </c>
       <c r="C369" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D369" s="14" t="n">
@@ -14375,7 +14375,7 @@
       </c>
       <c r="C377" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D377" s="14" t="n">
@@ -14820,7 +14820,7 @@
       </c>
       <c r="C390" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D390" s="14" t="n">
@@ -15030,7 +15030,7 @@
       </c>
       <c r="C396" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D396" s="14" t="n">
@@ -15065,7 +15065,7 @@
       </c>
       <c r="C397" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D397" s="14" t="n">
@@ -15275,7 +15275,7 @@
       </c>
       <c r="C403" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D403" s="14" t="n">
@@ -15310,7 +15310,7 @@
       </c>
       <c r="C404" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D404" s="14" t="n">
@@ -15345,7 +15345,7 @@
       </c>
       <c r="C405" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>бронь</t>
         </is>
       </c>
       <c r="D405" s="14" t="n">
@@ -15520,7 +15520,7 @@
       </c>
       <c r="C410" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D410" s="14" t="n">
@@ -15555,7 +15555,7 @@
       </c>
       <c r="C411" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D411" s="14" t="n">
@@ -15800,7 +15800,7 @@
       </c>
       <c r="C418" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D418" s="14" t="n">
@@ -16010,7 +16010,7 @@
       </c>
       <c r="C424" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D424" s="14" t="n">
@@ -16045,7 +16045,7 @@
       </c>
       <c r="C425" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D425" s="14" t="n">
@@ -16255,7 +16255,7 @@
       </c>
       <c r="C431" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D431" s="14" t="n">
@@ -16290,7 +16290,7 @@
       </c>
       <c r="C432" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D432" s="14" t="n">
@@ -16745,7 +16745,7 @@
       </c>
       <c r="C445" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D445" s="14" t="n">
@@ -17095,7 +17095,7 @@
       </c>
       <c r="C455" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D455" s="14" t="n">
@@ -17130,7 +17130,7 @@
       </c>
       <c r="C456" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D456" s="14" t="n">
@@ -17270,7 +17270,7 @@
       </c>
       <c r="C460" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D460" s="14" t="n">

--- a/static/Жилые_Комплексы/ЖК_Рассвет/jk_data.xlsx
+++ b/static/Жилые_Комплексы/ЖК_Рассвет/jk_data.xlsx
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C40" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D40" s="14" t="n">

--- a/static/Жилые_Комплексы/ЖК_Рассвет/jk_data.xlsx
+++ b/static/Жилые_Комплексы/ЖК_Рассвет/jk_data.xlsx
@@ -3707,7 +3707,7 @@
       </c>
       <c r="C71" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D71" s="14" t="n">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="C107" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D107" s="14" t="n">
@@ -8552,7 +8552,7 @@
       </c>
       <c r="C210" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D210" s="14" t="n">
@@ -12380,7 +12380,7 @@
       </c>
       <c r="C320" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D320" s="14" t="n">
@@ -14060,7 +14060,7 @@
       </c>
       <c r="C368" s="11" t="inlineStr">
         <is>
-          <t>бронь</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D368" s="14" t="n">
@@ -14995,7 +14995,7 @@
       </c>
       <c r="C395" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D395" s="14" t="n">
@@ -16745,7 +16745,7 @@
       </c>
       <c r="C445" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D445" s="14" t="n">

--- a/static/Жилые_Комплексы/ЖК_Рассвет/jk_data.xlsx
+++ b/static/Жилые_Комплексы/ЖК_Рассвет/jk_data.xlsx
@@ -8517,7 +8517,7 @@
       </c>
       <c r="C209" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D209" s="14" t="n">
@@ -8552,7 +8552,7 @@
       </c>
       <c r="C210" s="11" t="inlineStr">
         <is>
-          <t>продана</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D210" s="14" t="n">
@@ -12380,7 +12380,7 @@
       </c>
       <c r="C320" s="11" t="inlineStr">
         <is>
-          <t>продана</t>
+          <t>свободна</t>
         </is>
       </c>
       <c r="D320" s="14" t="n">
@@ -16220,7 +16220,7 @@
       </c>
       <c r="C430" s="11" t="inlineStr">
         <is>
-          <t>свободна</t>
+          <t>продана</t>
         </is>
       </c>
       <c r="D430" s="14" t="n">
